--- a/alufn signals.xlsx
+++ b/alufn signals.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sutdapac-my.sharepoint.com/personal/raphael_yip_mymail_sutd_edu_sg/Documents/Documents/sutd/term 4/50.002 computational structures/1d/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sutdapac-my.sharepoint.com/personal/muvil_kothari_mymail_sutd_edu_sg/Documents/Term 4 2D/Comp Struc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="209" documentId="8_{12DA70EA-5AC9-EA45-9614-46F0104F215A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC1DFA0B-CAC2-804B-A8D0-3F2DCF230F10}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{3384C4E7-4F22-40AB-B5AE-3E5A7D554671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BF67F45-FCB4-4200-A5A1-CF4D32AB94D3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{9A84F874-C9B2-AF48-9023-C6A2B60BE544}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{9A84F874-C9B2-AF48-9023-C6A2B60BE544}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Final ALUFN" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2540" uniqueCount="355">
   <si>
     <t>Reset A1</t>
   </si>
@@ -894,6 +895,213 @@
   </si>
   <si>
     <t>0x1000</t>
+  </si>
+  <si>
+    <t>Hint Calculation (-)</t>
+  </si>
+  <si>
+    <t>Hint RGB</t>
+  </si>
+  <si>
+    <t>A1 Max</t>
+  </si>
+  <si>
+    <t>A1 Min</t>
+  </si>
+  <si>
+    <t>A1 Hint</t>
+  </si>
+  <si>
+    <t>A1 COMPEQ</t>
+  </si>
+  <si>
+    <t>A1 Check</t>
+  </si>
+  <si>
+    <t>Seed</t>
+  </si>
+  <si>
+    <t>Counter</t>
+  </si>
+  <si>
+    <t>Counter RGB</t>
+  </si>
+  <si>
+    <t>COMPEQ</t>
+  </si>
+  <si>
+    <t>A2 Max</t>
+  </si>
+  <si>
+    <t>A2 Hint</t>
+  </si>
+  <si>
+    <t>A2 COMPEQ</t>
+  </si>
+  <si>
+    <t>A2 Check</t>
+  </si>
+  <si>
+    <t>Branch D1</t>
+  </si>
+  <si>
+    <t>Branch D2</t>
+  </si>
+  <si>
+    <t>Branch D3</t>
+  </si>
+  <si>
+    <t>Branch D4</t>
+  </si>
+  <si>
+    <t>Extract A1D1</t>
+  </si>
+  <si>
+    <t>Branch D1 G/Y</t>
+  </si>
+  <si>
+    <t>Extract A2D1</t>
+  </si>
+  <si>
+    <t>D1G CMPEQ</t>
+  </si>
+  <si>
+    <t>Count A1D1 in A1</t>
+  </si>
+  <si>
+    <t>Count A1D1 in A2</t>
+  </si>
+  <si>
+    <t>D1Y CMPLE</t>
+  </si>
+  <si>
+    <t>D1 Return Branch</t>
+  </si>
+  <si>
+    <t>Extract A1D2</t>
+  </si>
+  <si>
+    <t>Branch D2 G/Y</t>
+  </si>
+  <si>
+    <t>Extract A2D2</t>
+  </si>
+  <si>
+    <t>D2G CMPEQ</t>
+  </si>
+  <si>
+    <t>Count A1D2 in A1</t>
+  </si>
+  <si>
+    <t>Count A1D2 in A2</t>
+  </si>
+  <si>
+    <t>D2 Return Branch</t>
+  </si>
+  <si>
+    <t>Extract A1D3</t>
+  </si>
+  <si>
+    <t>Branch D3 G/Y</t>
+  </si>
+  <si>
+    <t>Extract A2D3</t>
+  </si>
+  <si>
+    <t>D3G CMPEQ</t>
+  </si>
+  <si>
+    <t>Count A1D3 in A1</t>
+  </si>
+  <si>
+    <t>Count A1D3 in A2</t>
+  </si>
+  <si>
+    <t>D3Y CMPLE</t>
+  </si>
+  <si>
+    <t>D3 Return Branch</t>
+  </si>
+  <si>
+    <t>D4 Return Branch</t>
+  </si>
+  <si>
+    <t>Count A1D4 in A2</t>
+  </si>
+  <si>
+    <t>D4Y CMPLE</t>
+  </si>
+  <si>
+    <t>Count A1D4 in A1</t>
+  </si>
+  <si>
+    <t>D4G CMPEQ</t>
+  </si>
+  <si>
+    <t>Extract A2D4</t>
+  </si>
+  <si>
+    <t>Branch D4 G/Y</t>
+  </si>
+  <si>
+    <t>Extract A1D4</t>
+  </si>
+  <si>
+    <t>D2Y CMPLE</t>
+  </si>
+  <si>
+    <t>CNT</t>
+  </si>
+  <si>
+    <t>EXT</t>
+  </si>
+  <si>
+    <t>CMPLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> --</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0x2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0x1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0x4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0x3</t>
+  </si>
+  <si>
+    <t>Migrate A2 (Digit)</t>
+  </si>
+  <si>
+    <t>Reset A2 (Digit)</t>
+  </si>
+  <si>
+    <t>Reset A2 (RGB)</t>
+  </si>
+  <si>
+    <t>CMPEQ</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>Reset Hint RGB</t>
+  </si>
+  <si>
+    <t>Reset Counter</t>
+  </si>
+  <si>
+    <t>Reset Counter RGB</t>
   </si>
 </sst>
 </file>
@@ -916,7 +1124,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -929,8 +1137,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1319,11 +1539,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1384,12 +1672,209 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1720,11 +2205,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33122E8-A2A5-464C-A377-912DA52CD29B}">
   <dimension ref="B1:AC180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="361" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L83" sqref="L83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
@@ -1736,8 +2221,8 @@
     <col min="14" max="14" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -1782,7 +2267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
@@ -1829,7 +2314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
@@ -1876,7 +2361,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1923,7 +2408,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
@@ -1970,7 +2455,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
         <v>33</v>
       </c>
@@ -2017,7 +2502,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B8" s="4" t="s">
         <v>34</v>
       </c>
@@ -2064,7 +2549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="5" t="s">
         <v>35</v>
       </c>
@@ -2111,8 +2596,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="6"/>
       <c r="C11" s="55" t="s">
         <v>36</v>
@@ -2148,7 +2633,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2186,7 +2671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
@@ -2224,7 +2709,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B14" s="7" t="s">
         <v>17</v>
       </c>
@@ -2262,7 +2747,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B15" s="7" t="s">
         <v>18</v>
       </c>
@@ -2300,7 +2785,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B16" s="7" t="s">
         <v>33</v>
       </c>
@@ -2338,7 +2823,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B17" s="7" t="s">
         <v>34</v>
       </c>
@@ -2374,7 +2859,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="11" t="s">
         <v>35</v>
       </c>
@@ -2412,8 +2897,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="20" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B20" s="3"/>
       <c r="C20" s="6" t="s">
         <v>59</v>
@@ -2479,7 +2964,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B21" s="4" t="s">
         <v>14</v>
       </c>
@@ -2551,7 +3036,7 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
     </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B22" s="4" t="s">
         <v>15</v>
       </c>
@@ -2625,7 +3110,7 @@
       <c r="AB22" s="2"/>
       <c r="AC22" s="1"/>
     </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B23" s="4" t="s">
         <v>17</v>
       </c>
@@ -2699,7 +3184,7 @@
       <c r="AB23" s="2"/>
       <c r="AC23" s="1"/>
     </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B24" s="4" t="s">
         <v>18</v>
       </c>
@@ -2773,7 +3258,7 @@
       <c r="AB24" s="2"/>
       <c r="AC24" s="1"/>
     </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B25" s="4" t="s">
         <v>33</v>
       </c>
@@ -2847,7 +3332,7 @@
       <c r="AB25" s="2"/>
       <c r="AC25" s="1"/>
     </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B26" s="4" t="s">
         <v>34</v>
       </c>
@@ -2921,7 +3406,7 @@
       <c r="AB26" s="2"/>
       <c r="AC26" s="1"/>
     </row>
-    <row r="27" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B27" s="5" t="s">
         <v>35</v>
       </c>
@@ -2995,7 +3480,7 @@
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
     </row>
-    <row r="28" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B28" s="21"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -3016,7 +3501,7 @@
       <c r="V28" s="2"/>
       <c r="W28" s="25"/>
     </row>
-    <row r="29" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B29" s="3"/>
       <c r="C29" s="23" t="s">
         <v>89</v>
@@ -3082,7 +3567,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B30" s="4" t="s">
         <v>14</v>
       </c>
@@ -3154,7 +3639,7 @@
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
     </row>
-    <row r="31" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B31" s="4" t="s">
         <v>15</v>
       </c>
@@ -3228,7 +3713,7 @@
       <c r="AB31" s="2"/>
       <c r="AC31" s="1"/>
     </row>
-    <row r="32" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B32" s="4" t="s">
         <v>17</v>
       </c>
@@ -3302,7 +3787,7 @@
       <c r="AB32" s="2"/>
       <c r="AC32" s="1"/>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B33" s="4" t="s">
         <v>18</v>
       </c>
@@ -3376,7 +3861,7 @@
       <c r="AB33" s="2"/>
       <c r="AC33" s="1"/>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B34" s="4" t="s">
         <v>33</v>
       </c>
@@ -3450,7 +3935,7 @@
       <c r="AB34" s="2"/>
       <c r="AC34" s="1"/>
     </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B35" s="26" t="s">
         <v>34</v>
       </c>
@@ -3524,7 +4009,7 @@
       <c r="AB35" s="2"/>
       <c r="AC35" s="1"/>
     </row>
-    <row r="36" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B36" s="5" t="s">
         <v>35</v>
       </c>
@@ -3598,8 +4083,8 @@
       <c r="AB36" s="2"/>
       <c r="AC36" s="2"/>
     </row>
-    <row r="37" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="38" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B38" s="6"/>
       <c r="C38" s="12" t="s">
         <v>110</v>
@@ -3665,7 +4150,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B39" s="7" t="s">
         <v>14</v>
       </c>
@@ -3737,7 +4222,7 @@
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
     </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B40" s="7" t="s">
         <v>15</v>
       </c>
@@ -3811,7 +4296,7 @@
       <c r="AB40" s="2"/>
       <c r="AC40" s="1"/>
     </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B41" s="7" t="s">
         <v>17</v>
       </c>
@@ -3885,7 +4370,7 @@
       <c r="AB41" s="2"/>
       <c r="AC41" s="1"/>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B42" s="7" t="s">
         <v>18</v>
       </c>
@@ -3959,7 +4444,7 @@
       <c r="AB42" s="2"/>
       <c r="AC42" s="1"/>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B43" s="7" t="s">
         <v>33</v>
       </c>
@@ -4033,7 +4518,7 @@
       <c r="AB43" s="2"/>
       <c r="AC43" s="1"/>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B44" s="7" t="s">
         <v>34</v>
       </c>
@@ -4107,7 +4592,7 @@
       <c r="AB44" s="2"/>
       <c r="AC44" s="1"/>
     </row>
-    <row r="45" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B45" s="11" t="s">
         <v>35</v>
       </c>
@@ -4181,7 +4666,7 @@
       <c r="AB45" s="2"/>
       <c r="AC45" s="2"/>
     </row>
-    <row r="46" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B46" s="25"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4205,7 +4690,7 @@
       <c r="V46" s="25"/>
       <c r="W46" s="25"/>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B47" s="24"/>
       <c r="C47" s="28" t="s">
         <v>131</v>
@@ -4271,7 +4756,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B48" s="7" t="s">
         <v>14</v>
       </c>
@@ -4343,7 +4828,7 @@
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
     </row>
-    <row r="49" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B49" s="7" t="s">
         <v>15</v>
       </c>
@@ -4417,7 +4902,7 @@
       <c r="AB49" s="2"/>
       <c r="AC49" s="1"/>
     </row>
-    <row r="50" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B50" s="7" t="s">
         <v>17</v>
       </c>
@@ -4491,7 +4976,7 @@
       <c r="AB50" s="2"/>
       <c r="AC50" s="1"/>
     </row>
-    <row r="51" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B51" s="7" t="s">
         <v>18</v>
       </c>
@@ -4565,7 +5050,7 @@
       <c r="AB51" s="2"/>
       <c r="AC51" s="1"/>
     </row>
-    <row r="52" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B52" s="7" t="s">
         <v>33</v>
       </c>
@@ -4639,7 +5124,7 @@
       <c r="AB52" s="2"/>
       <c r="AC52" s="1"/>
     </row>
-    <row r="53" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B53" s="7" t="s">
         <v>34</v>
       </c>
@@ -4713,7 +5198,7 @@
       <c r="AB53" s="2"/>
       <c r="AC53" s="1"/>
     </row>
-    <row r="54" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B54" s="11" t="s">
         <v>35</v>
       </c>
@@ -4787,7 +5272,7 @@
       <c r="AB54" s="2"/>
       <c r="AC54" s="2"/>
     </row>
-    <row r="55" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B55" s="25"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4811,7 +5296,7 @@
       <c r="V55" s="25"/>
       <c r="W55" s="25"/>
     </row>
-    <row r="56" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B56" s="24"/>
       <c r="C56" s="28" t="s">
         <v>151</v>
@@ -4877,7 +5362,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="57" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B57" s="7" t="s">
         <v>14</v>
       </c>
@@ -4949,7 +5434,7 @@
       <c r="AA57" s="2"/>
       <c r="AB57" s="2"/>
     </row>
-    <row r="58" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B58" s="7" t="s">
         <v>15</v>
       </c>
@@ -5023,7 +5508,7 @@
       <c r="AB58" s="2"/>
       <c r="AC58" s="1"/>
     </row>
-    <row r="59" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B59" s="7" t="s">
         <v>17</v>
       </c>
@@ -5097,7 +5582,7 @@
       <c r="AB59" s="2"/>
       <c r="AC59" s="1"/>
     </row>
-    <row r="60" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B60" s="7" t="s">
         <v>18</v>
       </c>
@@ -5171,7 +5656,7 @@
       <c r="AB60" s="2"/>
       <c r="AC60" s="1"/>
     </row>
-    <row r="61" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B61" s="7" t="s">
         <v>33</v>
       </c>
@@ -5245,7 +5730,7 @@
       <c r="AB61" s="2"/>
       <c r="AC61" s="1"/>
     </row>
-    <row r="62" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B62" s="7" t="s">
         <v>34</v>
       </c>
@@ -5319,7 +5804,7 @@
       <c r="AB62" s="2"/>
       <c r="AC62" s="1"/>
     </row>
-    <row r="63" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B63" s="11" t="s">
         <v>35</v>
       </c>
@@ -5393,7 +5878,7 @@
       <c r="AB63" s="2"/>
       <c r="AC63" s="2"/>
     </row>
-    <row r="64" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="25"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -5417,7 +5902,7 @@
       <c r="V64" s="25"/>
       <c r="W64" s="25"/>
     </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B65" s="24"/>
       <c r="C65" s="28" t="s">
         <v>172</v>
@@ -5483,7 +5968,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B66" s="7" t="s">
         <v>14</v>
       </c>
@@ -5555,7 +6040,7 @@
       <c r="AA66" s="2"/>
       <c r="AB66" s="2"/>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B67" s="7" t="s">
         <v>15</v>
       </c>
@@ -5629,7 +6114,7 @@
       <c r="AB67" s="2"/>
       <c r="AC67" s="1"/>
     </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B68" s="7" t="s">
         <v>17</v>
       </c>
@@ -5703,7 +6188,7 @@
       <c r="AB68" s="2"/>
       <c r="AC68" s="1"/>
     </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B69" s="7" t="s">
         <v>18</v>
       </c>
@@ -5777,7 +6262,7 @@
       <c r="AB69" s="2"/>
       <c r="AC69" s="1"/>
     </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B70" s="7" t="s">
         <v>33</v>
       </c>
@@ -5851,7 +6336,7 @@
       <c r="AB70" s="2"/>
       <c r="AC70" s="1"/>
     </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B71" s="7" t="s">
         <v>34</v>
       </c>
@@ -5925,7 +6410,7 @@
       <c r="AB71" s="2"/>
       <c r="AC71" s="1"/>
     </row>
-    <row r="72" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="11" t="s">
         <v>35</v>
       </c>
@@ -5999,8 +6484,8 @@
       <c r="AB72" s="2"/>
       <c r="AC72" s="2"/>
     </row>
-    <row r="73" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B74" s="3"/>
       <c r="C74" s="6" t="s">
         <v>193</v>
@@ -6027,7 +6512,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B75" s="4" t="s">
         <v>201</v>
       </c>
@@ -6056,7 +6541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B76" s="4" t="s">
         <v>202</v>
       </c>
@@ -6085,7 +6570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B77" s="4" t="s">
         <v>203</v>
       </c>
@@ -6114,7 +6599,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B78" s="4" t="s">
         <v>204</v>
       </c>
@@ -6143,7 +6628,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B79" s="4" t="s">
         <v>205</v>
       </c>
@@ -6172,7 +6657,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B80" s="4" t="s">
         <v>206</v>
       </c>
@@ -6201,7 +6686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B81" s="5" t="s">
         <v>35</v>
       </c>
@@ -6230,7 +6715,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="82" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="21"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -6241,7 +6726,7 @@
       <c r="I82" s="25"/>
       <c r="J82" s="25"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B83" s="3"/>
       <c r="C83" s="6" t="s">
         <v>207</v>
@@ -6268,7 +6753,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B84" s="4" t="s">
         <v>14</v>
       </c>
@@ -6297,7 +6782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B85" s="4" t="s">
         <v>15</v>
       </c>
@@ -6326,7 +6811,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B86" s="4" t="s">
         <v>17</v>
       </c>
@@ -6355,7 +6840,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B87" s="4" t="s">
         <v>18</v>
       </c>
@@ -6384,7 +6869,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B88" s="4" t="s">
         <v>33</v>
       </c>
@@ -6413,7 +6898,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B89" s="26" t="s">
         <v>34</v>
       </c>
@@ -6442,7 +6927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B90" s="5" t="s">
         <v>35</v>
       </c>
@@ -6471,8 +6956,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="91" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B92" s="6"/>
       <c r="C92" s="6" t="s">
         <v>215</v>
@@ -6499,7 +6984,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B93" s="7" t="s">
         <v>14</v>
       </c>
@@ -6528,7 +7013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B94" s="7" t="s">
         <v>15</v>
       </c>
@@ -6557,7 +7042,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B95" s="7" t="s">
         <v>17</v>
       </c>
@@ -6586,7 +7071,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B96" s="7" t="s">
         <v>18</v>
       </c>
@@ -6615,7 +7100,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B97" s="7" t="s">
         <v>33</v>
       </c>
@@ -6644,7 +7129,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B98" s="7" t="s">
         <v>34</v>
       </c>
@@ -6673,7 +7158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="11" t="s">
         <v>35</v>
       </c>
@@ -6702,7 +7187,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="100" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B100" s="25"/>
       <c r="C100" s="25"/>
       <c r="D100" s="25"/>
@@ -6713,7 +7198,7 @@
       <c r="I100" s="25"/>
       <c r="J100" s="25"/>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B101" s="24"/>
       <c r="C101" s="6" t="s">
         <v>223</v>
@@ -6740,7 +7225,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B102" s="7" t="s">
         <v>14</v>
       </c>
@@ -6769,7 +7254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B103" s="7" t="s">
         <v>15</v>
       </c>
@@ -6798,7 +7283,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B104" s="7" t="s">
         <v>17</v>
       </c>
@@ -6827,7 +7312,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B105" s="7" t="s">
         <v>18</v>
       </c>
@@ -6856,7 +7341,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B106" s="7" t="s">
         <v>33</v>
       </c>
@@ -6885,7 +7370,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B107" s="7" t="s">
         <v>34</v>
       </c>
@@ -6914,7 +7399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B108" s="11" t="s">
         <v>35</v>
       </c>
@@ -6943,7 +7428,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="109" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B109" s="25"/>
       <c r="C109" s="25"/>
       <c r="D109" s="25"/>
@@ -6954,7 +7439,7 @@
       <c r="I109" s="25"/>
       <c r="J109" s="25"/>
     </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B110" s="24"/>
       <c r="C110" s="6" t="s">
         <v>231</v>
@@ -6981,7 +7466,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B111" s="7" t="s">
         <v>14</v>
       </c>
@@ -7010,7 +7495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B112" s="7" t="s">
         <v>15</v>
       </c>
@@ -7039,7 +7524,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B113" s="7" t="s">
         <v>17</v>
       </c>
@@ -7068,7 +7553,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B114" s="7" t="s">
         <v>18</v>
       </c>
@@ -7097,7 +7582,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B115" s="7" t="s">
         <v>33</v>
       </c>
@@ -7126,7 +7611,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B116" s="7" t="s">
         <v>34</v>
       </c>
@@ -7155,7 +7640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B117" s="11" t="s">
         <v>35</v>
       </c>
@@ -7184,7 +7669,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="118" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B118" s="25"/>
       <c r="C118" s="25"/>
       <c r="D118" s="25"/>
@@ -7195,7 +7680,7 @@
       <c r="I118" s="25"/>
       <c r="J118" s="25"/>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B119" s="24"/>
       <c r="C119" s="6" t="s">
         <v>239</v>
@@ -7222,7 +7707,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B120" s="7" t="s">
         <v>14</v>
       </c>
@@ -7251,7 +7736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B121" s="7" t="s">
         <v>15</v>
       </c>
@@ -7280,7 +7765,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B122" s="7" t="s">
         <v>17</v>
       </c>
@@ -7309,7 +7794,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B123" s="7" t="s">
         <v>18</v>
       </c>
@@ -7338,7 +7823,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B124" s="7" t="s">
         <v>33</v>
       </c>
@@ -7367,7 +7852,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B125" s="7" t="s">
         <v>34</v>
       </c>
@@ -7396,7 +7881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B126" s="11" t="s">
         <v>35</v>
       </c>
@@ -7425,8 +7910,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="127" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B128" s="3"/>
       <c r="C128" s="3" t="s">
         <v>247</v>
@@ -7447,7 +7932,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B129" s="4" t="s">
         <v>14</v>
       </c>
@@ -7470,7 +7955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B130" s="4" t="s">
         <v>15</v>
       </c>
@@ -7493,7 +7978,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B131" s="4" t="s">
         <v>17</v>
       </c>
@@ -7516,7 +8001,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B132" s="4" t="s">
         <v>18</v>
       </c>
@@ -7539,7 +8024,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B133" s="4" t="s">
         <v>33</v>
       </c>
@@ -7562,7 +8047,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B134" s="4" t="s">
         <v>34</v>
       </c>
@@ -7585,7 +8070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B135" s="5" t="s">
         <v>35</v>
       </c>
@@ -7608,14 +8093,14 @@
         <v>55</v>
       </c>
     </row>
-    <row r="136" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B136" s="21"/>
       <c r="C136" s="25"/>
       <c r="D136" s="25"/>
       <c r="E136" s="25"/>
       <c r="F136" s="25"/>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B137" s="3"/>
       <c r="C137" s="6" t="s">
         <v>255</v>
@@ -7636,7 +8121,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B138" s="4" t="s">
         <v>14</v>
       </c>
@@ -7659,7 +8144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B139" s="4" t="s">
         <v>15</v>
       </c>
@@ -7682,7 +8167,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B140" s="4" t="s">
         <v>17</v>
       </c>
@@ -7705,7 +8190,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B141" s="4" t="s">
         <v>18</v>
       </c>
@@ -7728,7 +8213,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B142" s="4" t="s">
         <v>33</v>
       </c>
@@ -7751,7 +8236,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B143" s="26" t="s">
         <v>34</v>
       </c>
@@ -7774,7 +8259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B144" s="5" t="s">
         <v>35</v>
       </c>
@@ -7797,8 +8282,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="145" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B146" s="6"/>
       <c r="C146" s="6" t="s">
         <v>261</v>
@@ -7819,7 +8304,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B147" s="7" t="s">
         <v>14</v>
       </c>
@@ -7842,7 +8327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B148" s="7" t="s">
         <v>15</v>
       </c>
@@ -7865,7 +8350,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B149" s="7" t="s">
         <v>17</v>
       </c>
@@ -7888,7 +8373,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B150" s="7" t="s">
         <v>18</v>
       </c>
@@ -7911,7 +8396,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B151" s="7" t="s">
         <v>33</v>
       </c>
@@ -7934,7 +8419,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B152" s="7" t="s">
         <v>34</v>
       </c>
@@ -7957,7 +8442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B153" s="11" t="s">
         <v>35</v>
       </c>
@@ -7980,14 +8465,14 @@
         <v>55</v>
       </c>
     </row>
-    <row r="154" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B154" s="25"/>
       <c r="C154" s="25"/>
       <c r="E154" s="25"/>
       <c r="F154" s="25"/>
       <c r="H154" s="25"/>
     </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B155" s="24"/>
       <c r="C155" s="6" t="s">
         <v>267</v>
@@ -8008,7 +8493,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B156" s="7" t="s">
         <v>14</v>
       </c>
@@ -8031,7 +8516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B157" s="7" t="s">
         <v>15</v>
       </c>
@@ -8054,7 +8539,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B158" s="7" t="s">
         <v>17</v>
       </c>
@@ -8077,7 +8562,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B159" s="7" t="s">
         <v>18</v>
       </c>
@@ -8100,7 +8585,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B160" s="7" t="s">
         <v>33</v>
       </c>
@@ -8123,7 +8608,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B161" s="7" t="s">
         <v>34</v>
       </c>
@@ -8146,7 +8631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B162" s="11" t="s">
         <v>35</v>
       </c>
@@ -8169,14 +8654,14 @@
         <v>55</v>
       </c>
     </row>
-    <row r="163" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B163" s="25"/>
       <c r="C163" s="25"/>
       <c r="E163" s="25"/>
       <c r="F163" s="25"/>
       <c r="H163" s="25"/>
     </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B164" s="24"/>
       <c r="C164" s="6" t="s">
         <v>273</v>
@@ -8197,7 +8682,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B165" s="7" t="s">
         <v>14</v>
       </c>
@@ -8220,7 +8705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B166" s="7" t="s">
         <v>15</v>
       </c>
@@ -8243,7 +8728,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B167" s="7" t="s">
         <v>17</v>
       </c>
@@ -8266,7 +8751,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B168" s="7" t="s">
         <v>18</v>
       </c>
@@ -8289,7 +8774,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B169" s="7" t="s">
         <v>33</v>
       </c>
@@ -8312,7 +8797,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B170" s="7" t="s">
         <v>34</v>
       </c>
@@ -8335,7 +8820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B171" s="11" t="s">
         <v>35</v>
       </c>
@@ -8358,14 +8843,14 @@
         <v>55</v>
       </c>
     </row>
-    <row r="172" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B172" s="25"/>
       <c r="C172" s="25"/>
       <c r="E172" s="25"/>
       <c r="F172" s="25"/>
       <c r="H172" s="25"/>
     </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B173" s="24"/>
       <c r="C173" s="6" t="s">
         <v>279</v>
@@ -8386,7 +8871,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B174" s="7" t="s">
         <v>14</v>
       </c>
@@ -8409,7 +8894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B175" s="7" t="s">
         <v>15</v>
       </c>
@@ -8432,7 +8917,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B176" s="7" t="s">
         <v>17</v>
       </c>
@@ -8455,7 +8940,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B177" s="7" t="s">
         <v>18</v>
       </c>
@@ -8478,7 +8963,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B178" s="7" t="s">
         <v>33</v>
       </c>
@@ -8501,7 +8986,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B179" s="7" t="s">
         <v>34</v>
       </c>
@@ -8524,7 +9009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B180" s="11" t="s">
         <v>35</v>
       </c>
@@ -8550,4 +9035,4608 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA476091-37A1-49D3-A572-F7335020629A}">
+  <dimension ref="B1:AC126"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11" style="60"/>
+    <col min="2" max="2" width="11" style="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.08203125" style="60" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="60" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.9140625" style="60" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="60" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="60" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" style="60" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.58203125" style="60" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.58203125" style="60" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.08203125" style="60" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.4140625" style="60" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.9140625" style="60" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.25" style="60" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" style="60" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.1640625" style="60" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.9140625" style="60" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.25" style="60" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="7.9140625" style="60" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.25" style="60" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="11" style="60"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="61" t="s">
+        <v>352</v>
+      </c>
+      <c r="I2" s="61" t="s">
+        <v>353</v>
+      </c>
+      <c r="J2" s="62" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B3" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="63">
+        <v>1</v>
+      </c>
+      <c r="D3" s="63">
+        <v>1</v>
+      </c>
+      <c r="E3" s="63">
+        <v>1</v>
+      </c>
+      <c r="F3" s="63">
+        <v>1</v>
+      </c>
+      <c r="G3" s="63">
+        <v>1</v>
+      </c>
+      <c r="H3" s="63">
+        <v>1</v>
+      </c>
+      <c r="I3" s="63">
+        <v>1</v>
+      </c>
+      <c r="J3" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B4" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B5" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B6" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="64" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B7" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B8" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="63">
+        <v>1</v>
+      </c>
+      <c r="D8" s="63">
+        <v>1</v>
+      </c>
+      <c r="E8" s="63">
+        <v>1</v>
+      </c>
+      <c r="F8" s="63">
+        <v>1</v>
+      </c>
+      <c r="G8" s="63">
+        <v>1</v>
+      </c>
+      <c r="H8" s="63">
+        <v>1</v>
+      </c>
+      <c r="I8" s="63">
+        <v>1</v>
+      </c>
+      <c r="J8" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="69" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="62"/>
+      <c r="C11" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="61" t="s">
+        <v>286</v>
+      </c>
+      <c r="H11" s="70" t="s">
+        <v>287</v>
+      </c>
+      <c r="I11" s="70" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B12" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="64">
+        <v>0</v>
+      </c>
+      <c r="D12" s="63">
+        <v>1</v>
+      </c>
+      <c r="E12" s="63">
+        <v>1</v>
+      </c>
+      <c r="F12" s="63">
+        <v>1</v>
+      </c>
+      <c r="G12" s="63">
+        <v>1</v>
+      </c>
+      <c r="H12" s="62">
+        <v>1</v>
+      </c>
+      <c r="I12" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B13" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B14" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="66">
+        <v>1</v>
+      </c>
+      <c r="I14" s="66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B15" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B16" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="71" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B17" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63">
+        <v>0</v>
+      </c>
+      <c r="F17" s="63">
+        <v>0</v>
+      </c>
+      <c r="G17" s="63">
+        <v>0</v>
+      </c>
+      <c r="H17" s="66">
+        <v>0</v>
+      </c>
+      <c r="I17" s="66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" s="74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="20" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B20" s="61"/>
+      <c r="C20" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="K20" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="L20" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="M20" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="N20" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="O20" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="P20" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q20" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="R20" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="S20" s="75" t="s">
+        <v>75</v>
+      </c>
+      <c r="T20" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="U20" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="V20" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="W20" s="75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B21" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="64">
+        <v>0</v>
+      </c>
+      <c r="D21" s="64">
+        <v>1</v>
+      </c>
+      <c r="E21" s="64">
+        <v>1</v>
+      </c>
+      <c r="F21" s="63">
+        <v>1</v>
+      </c>
+      <c r="G21" s="64">
+        <v>1</v>
+      </c>
+      <c r="H21" s="77">
+        <v>0</v>
+      </c>
+      <c r="I21" s="64">
+        <v>1</v>
+      </c>
+      <c r="J21" s="64">
+        <v>1</v>
+      </c>
+      <c r="K21" s="64">
+        <v>1</v>
+      </c>
+      <c r="L21" s="64">
+        <v>1</v>
+      </c>
+      <c r="M21" s="64">
+        <v>0</v>
+      </c>
+      <c r="N21" s="78">
+        <v>1</v>
+      </c>
+      <c r="O21" s="79">
+        <v>1</v>
+      </c>
+      <c r="P21" s="79">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="64">
+        <v>1</v>
+      </c>
+      <c r="R21" s="77">
+        <v>0</v>
+      </c>
+      <c r="S21" s="79">
+        <v>1</v>
+      </c>
+      <c r="T21" s="79">
+        <v>1</v>
+      </c>
+      <c r="U21" s="79">
+        <v>1</v>
+      </c>
+      <c r="V21" s="78">
+        <v>1</v>
+      </c>
+      <c r="W21" s="77">
+        <v>0</v>
+      </c>
+      <c r="X21" s="80"/>
+      <c r="Z21" s="80"/>
+      <c r="AA21" s="80"/>
+      <c r="AB21" s="80"/>
+    </row>
+    <row r="22" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B22" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="N22" s="78" t="s">
+        <v>16</v>
+      </c>
+      <c r="O22" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="P22" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q22" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="R22" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="S22" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="T22" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="U22" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="V22" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="W22" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="X22" s="80"/>
+      <c r="Y22" s="83"/>
+      <c r="Z22" s="80"/>
+      <c r="AA22" s="80"/>
+      <c r="AB22" s="80"/>
+      <c r="AC22" s="83"/>
+    </row>
+    <row r="23" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B23" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="J23" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="K23" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="L23" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="M23" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="N23" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="O23" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="P23" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q23" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="R23" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="S23" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="T23" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="U23" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="V23" s="82">
+        <v>1</v>
+      </c>
+      <c r="W23" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="X23" s="80"/>
+      <c r="Y23" s="83"/>
+      <c r="Z23" s="80"/>
+      <c r="AA23" s="80"/>
+      <c r="AB23" s="80"/>
+      <c r="AC23" s="83"/>
+    </row>
+    <row r="24" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B24" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="K24" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="N24" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="O24" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="P24" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="R24" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="S24" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="T24" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="U24" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="V24" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="W24" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="X24" s="80"/>
+      <c r="Y24" s="83"/>
+      <c r="Z24" s="80"/>
+      <c r="AA24" s="80"/>
+      <c r="AB24" s="80"/>
+      <c r="AC24" s="83"/>
+    </row>
+    <row r="25" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B25" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="H25" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="J25" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="K25" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="L25" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="M25" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="N25" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="O25" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="P25" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q25" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="R25" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="S25" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="T25" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="U25" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="V25" s="86" t="s">
+        <v>50</v>
+      </c>
+      <c r="W25" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="X25" s="80"/>
+      <c r="Y25" s="83"/>
+      <c r="Z25" s="80"/>
+      <c r="AA25" s="80"/>
+      <c r="AB25" s="80"/>
+      <c r="AC25" s="83"/>
+    </row>
+    <row r="26" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B26" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="64">
+        <v>0</v>
+      </c>
+      <c r="E26" s="64">
+        <v>0</v>
+      </c>
+      <c r="F26" s="63">
+        <v>0</v>
+      </c>
+      <c r="G26" s="64">
+        <v>0</v>
+      </c>
+      <c r="H26" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="64">
+        <v>0</v>
+      </c>
+      <c r="J26" s="64">
+        <v>0</v>
+      </c>
+      <c r="K26" s="64">
+        <v>0</v>
+      </c>
+      <c r="L26" s="64">
+        <v>0</v>
+      </c>
+      <c r="M26" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="N26" s="78">
+        <v>0</v>
+      </c>
+      <c r="O26" s="79">
+        <v>0</v>
+      </c>
+      <c r="P26" s="79">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="64">
+        <v>0</v>
+      </c>
+      <c r="R26" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="S26" s="79">
+        <v>0</v>
+      </c>
+      <c r="T26" s="79">
+        <v>0</v>
+      </c>
+      <c r="U26" s="79">
+        <v>0</v>
+      </c>
+      <c r="V26" s="82">
+        <v>0</v>
+      </c>
+      <c r="W26" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="X26" s="80"/>
+      <c r="Y26" s="83"/>
+      <c r="Z26" s="80"/>
+      <c r="AA26" s="80"/>
+      <c r="AB26" s="80"/>
+      <c r="AC26" s="83"/>
+    </row>
+    <row r="27" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="J27" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="K27" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="L27" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="M27" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="N27" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="O27" s="87" t="s">
+        <v>88</v>
+      </c>
+      <c r="P27" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q27" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="R27" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="S27" s="87" t="s">
+        <v>87</v>
+      </c>
+      <c r="T27" s="87" t="s">
+        <v>88</v>
+      </c>
+      <c r="U27" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="V27" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="W27" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="X27" s="80"/>
+      <c r="Y27" s="80"/>
+      <c r="Z27" s="80"/>
+      <c r="AA27" s="80"/>
+      <c r="AB27" s="80"/>
+      <c r="AC27" s="80"/>
+    </row>
+    <row r="28" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="29" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B29" s="61"/>
+      <c r="C29" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="D29" s="62" t="s">
+        <v>194</v>
+      </c>
+      <c r="E29" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="F29" s="62" t="s">
+        <v>196</v>
+      </c>
+      <c r="G29" s="62" t="s">
+        <v>197</v>
+      </c>
+      <c r="H29" s="75" t="s">
+        <v>198</v>
+      </c>
+      <c r="I29" s="75" t="s">
+        <v>199</v>
+      </c>
+      <c r="J29" s="75" t="s">
+        <v>200</v>
+      </c>
+      <c r="X29" s="80"/>
+      <c r="Z29" s="80"/>
+      <c r="AA29" s="80"/>
+      <c r="AB29" s="80"/>
+    </row>
+    <row r="30" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B30" s="63" t="s">
+        <v>201</v>
+      </c>
+      <c r="C30" s="64">
+        <v>1</v>
+      </c>
+      <c r="D30" s="64">
+        <v>1</v>
+      </c>
+      <c r="E30" s="64">
+        <v>1</v>
+      </c>
+      <c r="F30" s="64">
+        <v>1</v>
+      </c>
+      <c r="G30" s="64">
+        <v>1</v>
+      </c>
+      <c r="H30" s="64">
+        <v>1</v>
+      </c>
+      <c r="I30" s="64">
+        <v>1</v>
+      </c>
+      <c r="J30" s="78">
+        <v>1</v>
+      </c>
+      <c r="X30" s="80"/>
+      <c r="Y30" s="83"/>
+      <c r="Z30" s="80"/>
+      <c r="AA30" s="80"/>
+      <c r="AB30" s="80"/>
+      <c r="AC30" s="83"/>
+    </row>
+    <row r="31" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B31" s="63" t="s">
+        <v>202</v>
+      </c>
+      <c r="C31" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="X31" s="80"/>
+      <c r="Y31" s="83"/>
+      <c r="Z31" s="80"/>
+      <c r="AA31" s="80"/>
+      <c r="AB31" s="80"/>
+      <c r="AC31" s="83"/>
+    </row>
+    <row r="32" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B32" s="63" t="s">
+        <v>203</v>
+      </c>
+      <c r="C32" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="J32" s="82">
+        <v>1</v>
+      </c>
+      <c r="X32" s="80"/>
+      <c r="Y32" s="83"/>
+      <c r="Z32" s="80"/>
+      <c r="AA32" s="80"/>
+      <c r="AB32" s="80"/>
+      <c r="AC32" s="83"/>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B33" s="63" t="s">
+        <v>204</v>
+      </c>
+      <c r="C33" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="X33" s="80"/>
+      <c r="Y33" s="83"/>
+      <c r="Z33" s="80"/>
+      <c r="AA33" s="80"/>
+      <c r="AB33" s="80"/>
+      <c r="AC33" s="83"/>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B34" s="63" t="s">
+        <v>205</v>
+      </c>
+      <c r="C34" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="G34" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="H34" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="I34" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="J34" s="86" t="s">
+        <v>50</v>
+      </c>
+      <c r="X34" s="80"/>
+      <c r="Y34" s="83"/>
+      <c r="Z34" s="80"/>
+      <c r="AA34" s="80"/>
+      <c r="AB34" s="80"/>
+      <c r="AC34" s="83"/>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B35" s="63" t="s">
+        <v>206</v>
+      </c>
+      <c r="C35" s="64">
+        <v>0</v>
+      </c>
+      <c r="D35" s="64">
+        <v>0</v>
+      </c>
+      <c r="E35" s="64">
+        <v>0</v>
+      </c>
+      <c r="F35" s="64">
+        <v>0</v>
+      </c>
+      <c r="G35" s="64">
+        <v>0</v>
+      </c>
+      <c r="H35" s="64">
+        <v>0</v>
+      </c>
+      <c r="I35" s="64">
+        <v>0</v>
+      </c>
+      <c r="J35" s="82">
+        <v>0</v>
+      </c>
+      <c r="X35" s="80"/>
+      <c r="Y35" s="80"/>
+      <c r="Z35" s="80"/>
+      <c r="AA35" s="80"/>
+      <c r="AB35" s="80"/>
+      <c r="AC35" s="80"/>
+    </row>
+    <row r="36" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="I36" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="J36" s="69" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="89"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="91"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="92"/>
+      <c r="H37" s="91"/>
+      <c r="I37" s="83"/>
+      <c r="J37" s="83"/>
+    </row>
+    <row r="38" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B38" s="70"/>
+      <c r="C38" s="70" t="s">
+        <v>288</v>
+      </c>
+      <c r="D38" s="70" t="s">
+        <v>289</v>
+      </c>
+      <c r="E38" s="70" t="s">
+        <v>290</v>
+      </c>
+      <c r="F38" s="70" t="s">
+        <v>291</v>
+      </c>
+      <c r="G38" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="H38" s="70" t="s">
+        <v>293</v>
+      </c>
+      <c r="I38" s="93" t="s">
+        <v>294</v>
+      </c>
+      <c r="J38" s="70" t="s">
+        <v>295</v>
+      </c>
+      <c r="K38" s="94" t="s">
+        <v>247</v>
+      </c>
+      <c r="L38" s="62" t="s">
+        <v>248</v>
+      </c>
+      <c r="M38" s="75" t="s">
+        <v>249</v>
+      </c>
+      <c r="N38" s="61" t="s">
+        <v>250</v>
+      </c>
+      <c r="O38" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="P38" s="75" t="s">
+        <v>252</v>
+      </c>
+      <c r="X38" s="80"/>
+      <c r="Y38" s="83"/>
+      <c r="Z38" s="80"/>
+      <c r="AA38" s="80"/>
+      <c r="AB38" s="80"/>
+      <c r="AC38" s="83"/>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B39" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="64">
+        <v>1</v>
+      </c>
+      <c r="D39" s="64">
+        <v>1</v>
+      </c>
+      <c r="E39" s="64">
+        <v>1</v>
+      </c>
+      <c r="F39" s="64">
+        <v>1</v>
+      </c>
+      <c r="G39" s="64">
+        <v>1</v>
+      </c>
+      <c r="H39" s="64">
+        <v>1</v>
+      </c>
+      <c r="I39" s="95">
+        <v>1</v>
+      </c>
+      <c r="J39" s="64">
+        <v>1</v>
+      </c>
+      <c r="K39" s="95">
+        <v>1</v>
+      </c>
+      <c r="L39" s="64">
+        <v>1</v>
+      </c>
+      <c r="M39" s="77">
+        <v>1</v>
+      </c>
+      <c r="N39" s="63">
+        <v>1</v>
+      </c>
+      <c r="O39" s="64">
+        <v>1</v>
+      </c>
+      <c r="P39" s="77">
+        <v>1</v>
+      </c>
+      <c r="X39" s="80"/>
+      <c r="Y39" s="83"/>
+      <c r="Z39" s="80"/>
+      <c r="AA39" s="80"/>
+      <c r="AB39" s="80"/>
+      <c r="AC39" s="83"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B40" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="H40" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="K40" s="96" t="s">
+        <v>47</v>
+      </c>
+      <c r="L40" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="M40" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="N40" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="O40" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="P40" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="X40" s="80"/>
+      <c r="Y40" s="83"/>
+      <c r="Z40" s="80"/>
+      <c r="AA40" s="80"/>
+      <c r="AB40" s="80"/>
+      <c r="AC40" s="83"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B41" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" s="95">
+        <v>1</v>
+      </c>
+      <c r="J41" s="64">
+        <v>1</v>
+      </c>
+      <c r="K41" s="96" t="s">
+        <v>19</v>
+      </c>
+      <c r="L41" s="66">
+        <v>2</v>
+      </c>
+      <c r="M41" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="N41" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="O41" s="64">
+        <v>1</v>
+      </c>
+      <c r="P41" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="X41" s="80"/>
+      <c r="Y41" s="83"/>
+      <c r="Z41" s="80"/>
+      <c r="AA41" s="80"/>
+      <c r="AB41" s="80"/>
+      <c r="AC41" s="83"/>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B42" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="J42" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="K42" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="L42" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="M42" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="N42" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="O42" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="P42" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="X42" s="80"/>
+      <c r="Y42" s="83"/>
+      <c r="Z42" s="80"/>
+      <c r="AA42" s="80"/>
+      <c r="AB42" s="80"/>
+      <c r="AC42" s="83"/>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B43" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="64">
+        <v>1</v>
+      </c>
+      <c r="D43" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="G43" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="I43" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="J43" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="97" t="s">
+        <v>51</v>
+      </c>
+      <c r="L43" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="N43" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="O43" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="P43" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="X43" s="80"/>
+      <c r="Y43" s="80"/>
+      <c r="Z43" s="80"/>
+      <c r="AA43" s="80"/>
+      <c r="AB43" s="80"/>
+      <c r="AC43" s="80"/>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B44" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="64">
+        <v>0</v>
+      </c>
+      <c r="D44" s="64">
+        <v>0</v>
+      </c>
+      <c r="E44" s="64">
+        <v>0</v>
+      </c>
+      <c r="F44" s="64">
+        <v>0</v>
+      </c>
+      <c r="G44" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="64">
+        <v>0</v>
+      </c>
+      <c r="I44" s="95">
+        <v>0</v>
+      </c>
+      <c r="J44" s="64">
+        <v>0</v>
+      </c>
+      <c r="K44" s="95">
+        <v>0</v>
+      </c>
+      <c r="L44" s="64">
+        <v>0</v>
+      </c>
+      <c r="M44" s="77">
+        <v>0</v>
+      </c>
+      <c r="N44" s="63">
+        <v>0</v>
+      </c>
+      <c r="O44" s="64">
+        <v>0</v>
+      </c>
+      <c r="P44" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="99" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="99" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45" s="99" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="99" t="s">
+        <v>296</v>
+      </c>
+      <c r="G45" s="100" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="99" t="s">
+        <v>87</v>
+      </c>
+      <c r="I45" s="101" t="s">
+        <v>55</v>
+      </c>
+      <c r="J45" s="99" t="s">
+        <v>55</v>
+      </c>
+      <c r="K45" s="102" t="s">
+        <v>253</v>
+      </c>
+      <c r="L45" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="M45" s="103" t="s">
+        <v>55</v>
+      </c>
+      <c r="N45" s="68" t="s">
+        <v>254</v>
+      </c>
+      <c r="O45" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="P45" s="104" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C46" s="72"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="92"/>
+      <c r="H46" s="83"/>
+      <c r="I46" s="72"/>
+      <c r="J46" s="72"/>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B47" s="61"/>
+      <c r="C47" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="F47" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="G47" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="H47" s="94" t="s">
+        <v>94</v>
+      </c>
+      <c r="I47" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="J47" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="K47" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="L47" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="M47" s="94" t="s">
+        <v>99</v>
+      </c>
+      <c r="N47" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="O47" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="P47" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q47" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="R47" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="S47" s="105" t="s">
+        <v>105</v>
+      </c>
+      <c r="T47" s="106" t="s">
+        <v>106</v>
+      </c>
+      <c r="U47" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="V47" s="76" t="s">
+        <v>108</v>
+      </c>
+      <c r="W47" s="62" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B48" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="63">
+        <v>0</v>
+      </c>
+      <c r="D48" s="63">
+        <v>1</v>
+      </c>
+      <c r="E48" s="63">
+        <v>1</v>
+      </c>
+      <c r="F48" s="63">
+        <v>1</v>
+      </c>
+      <c r="G48" s="64">
+        <v>1</v>
+      </c>
+      <c r="H48" s="95">
+        <v>0</v>
+      </c>
+      <c r="I48" s="63">
+        <v>1</v>
+      </c>
+      <c r="J48" s="63">
+        <v>1</v>
+      </c>
+      <c r="K48" s="63">
+        <v>1</v>
+      </c>
+      <c r="L48" s="78">
+        <v>1</v>
+      </c>
+      <c r="M48" s="95">
+        <v>0</v>
+      </c>
+      <c r="N48" s="107">
+        <v>1</v>
+      </c>
+      <c r="O48" s="107">
+        <v>1</v>
+      </c>
+      <c r="P48" s="107">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="78">
+        <v>1</v>
+      </c>
+      <c r="R48" s="63">
+        <v>0</v>
+      </c>
+      <c r="S48" s="108">
+        <v>1</v>
+      </c>
+      <c r="T48" s="109">
+        <v>1</v>
+      </c>
+      <c r="U48" s="107">
+        <v>1</v>
+      </c>
+      <c r="V48" s="78">
+        <v>1</v>
+      </c>
+      <c r="W48" s="64">
+        <v>0</v>
+      </c>
+      <c r="X48" s="80"/>
+      <c r="Z48" s="80"/>
+      <c r="AA48" s="80"/>
+      <c r="AB48" s="80"/>
+    </row>
+    <row r="49" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B49" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="K49" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="L49" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="M49" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="N49" s="107" t="s">
+        <v>16</v>
+      </c>
+      <c r="O49" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="P49" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q49" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="R49" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="S49" s="108" t="s">
+        <v>16</v>
+      </c>
+      <c r="T49" s="109" t="s">
+        <v>48</v>
+      </c>
+      <c r="U49" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="V49" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="W49" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="X49" s="80"/>
+      <c r="Y49" s="83"/>
+      <c r="Z49" s="80"/>
+      <c r="AA49" s="80"/>
+      <c r="AB49" s="80"/>
+      <c r="AC49" s="83"/>
+    </row>
+    <row r="50" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B50" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="E50" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="F50" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="G50" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="J50" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="K50" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="L50" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="M50" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="N50" s="107" t="s">
+        <v>80</v>
+      </c>
+      <c r="O50" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="P50" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q50" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="R50" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="S50" s="108" t="s">
+        <v>80</v>
+      </c>
+      <c r="T50" s="111" t="s">
+        <v>84</v>
+      </c>
+      <c r="U50" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="V50" s="82">
+        <v>1</v>
+      </c>
+      <c r="W50" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="X50" s="80"/>
+      <c r="Y50" s="83"/>
+      <c r="Z50" s="80"/>
+      <c r="AA50" s="80"/>
+      <c r="AB50" s="80"/>
+      <c r="AC50" s="83"/>
+    </row>
+    <row r="51" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B51" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="E51" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="F51" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="J51" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="K51" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="L51" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="M51" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="N51" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="O51" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="P51" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q51" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="R51" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="S51" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="T51" s="109" t="s">
+        <v>48</v>
+      </c>
+      <c r="U51" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="V51" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="W51" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="X51" s="80"/>
+      <c r="Y51" s="83"/>
+      <c r="Z51" s="80"/>
+      <c r="AA51" s="80"/>
+      <c r="AB51" s="80"/>
+      <c r="AC51" s="83"/>
+    </row>
+    <row r="52" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B52" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="E52" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="F52" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="G52" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="H52" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="J52" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="K52" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="L52" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="M52" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="N52" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="O52" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="P52" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q52" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="R52" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="S52" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="T52" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="U52" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="V52" s="86" t="s">
+        <v>50</v>
+      </c>
+      <c r="W52" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="X52" s="80"/>
+      <c r="Y52" s="83"/>
+      <c r="Z52" s="80"/>
+      <c r="AA52" s="80"/>
+      <c r="AB52" s="80"/>
+      <c r="AC52" s="83"/>
+    </row>
+    <row r="53" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B53" s="112" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="98" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="112">
+        <v>0</v>
+      </c>
+      <c r="E53" s="112">
+        <v>0</v>
+      </c>
+      <c r="F53" s="112">
+        <v>0</v>
+      </c>
+      <c r="G53" s="64">
+        <v>0</v>
+      </c>
+      <c r="H53" s="97" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" s="112">
+        <v>0</v>
+      </c>
+      <c r="J53" s="112">
+        <v>0</v>
+      </c>
+      <c r="K53" s="112">
+        <v>0</v>
+      </c>
+      <c r="L53" s="82">
+        <v>0</v>
+      </c>
+      <c r="M53" s="97" t="s">
+        <v>16</v>
+      </c>
+      <c r="N53" s="113">
+        <v>0</v>
+      </c>
+      <c r="O53" s="113">
+        <v>0</v>
+      </c>
+      <c r="P53" s="113">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="82">
+        <v>0</v>
+      </c>
+      <c r="R53" s="98" t="s">
+        <v>16</v>
+      </c>
+      <c r="S53" s="114">
+        <v>0</v>
+      </c>
+      <c r="T53" s="115">
+        <v>0</v>
+      </c>
+      <c r="U53" s="113">
+        <v>0</v>
+      </c>
+      <c r="V53" s="82">
+        <v>0</v>
+      </c>
+      <c r="W53" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="X53" s="80"/>
+      <c r="Y53" s="83"/>
+      <c r="Z53" s="80"/>
+      <c r="AA53" s="80"/>
+      <c r="AB53" s="80"/>
+      <c r="AC53" s="83"/>
+    </row>
+    <row r="54" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="116" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="E54" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="F54" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="G54" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="H54" s="117" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="J54" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="K54" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="L54" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="M54" s="117" t="s">
+        <v>16</v>
+      </c>
+      <c r="N54" s="116" t="s">
+        <v>87</v>
+      </c>
+      <c r="O54" s="116" t="s">
+        <v>88</v>
+      </c>
+      <c r="P54" s="116" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q54" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="R54" s="116" t="s">
+        <v>16</v>
+      </c>
+      <c r="S54" s="118" t="s">
+        <v>87</v>
+      </c>
+      <c r="T54" s="119" t="s">
+        <v>88</v>
+      </c>
+      <c r="U54" s="116" t="s">
+        <v>55</v>
+      </c>
+      <c r="V54" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="W54" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="X54" s="80"/>
+      <c r="Y54" s="80"/>
+      <c r="Z54" s="80"/>
+      <c r="AA54" s="80"/>
+      <c r="AB54" s="80"/>
+      <c r="AC54" s="80"/>
+    </row>
+    <row r="55" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="89"/>
+      <c r="C55" s="101"/>
+      <c r="D55" s="101"/>
+      <c r="E55" s="101"/>
+      <c r="F55" s="101"/>
+      <c r="G55" s="101"/>
+      <c r="H55" s="101"/>
+      <c r="I55" s="101"/>
+      <c r="J55" s="101"/>
+    </row>
+    <row r="56" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B56" s="61"/>
+      <c r="C56" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="D56" s="120" t="s">
+        <v>208</v>
+      </c>
+      <c r="E56" s="61" t="s">
+        <v>209</v>
+      </c>
+      <c r="F56" s="61" t="s">
+        <v>210</v>
+      </c>
+      <c r="G56" s="120" t="s">
+        <v>211</v>
+      </c>
+      <c r="H56" s="120" t="s">
+        <v>212</v>
+      </c>
+      <c r="I56" s="120" t="s">
+        <v>213</v>
+      </c>
+      <c r="J56" s="62" t="s">
+        <v>214</v>
+      </c>
+      <c r="X56" s="80"/>
+      <c r="Z56" s="80"/>
+      <c r="AA56" s="80"/>
+      <c r="AB56" s="80"/>
+    </row>
+    <row r="57" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B57" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="64">
+        <v>1</v>
+      </c>
+      <c r="D57" s="64">
+        <v>1</v>
+      </c>
+      <c r="E57" s="64">
+        <v>1</v>
+      </c>
+      <c r="F57" s="78">
+        <v>1</v>
+      </c>
+      <c r="G57" s="64">
+        <v>1</v>
+      </c>
+      <c r="H57" s="78">
+        <v>1</v>
+      </c>
+      <c r="I57" s="64">
+        <v>1</v>
+      </c>
+      <c r="J57" s="78">
+        <v>1</v>
+      </c>
+      <c r="X57" s="80"/>
+      <c r="Y57" s="83"/>
+      <c r="Z57" s="80"/>
+      <c r="AA57" s="80"/>
+      <c r="AB57" s="80"/>
+      <c r="AC57" s="83"/>
+    </row>
+    <row r="58" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B58" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="H58" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="I58" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="J58" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="X58" s="80"/>
+      <c r="Y58" s="83"/>
+      <c r="Z58" s="80"/>
+      <c r="AA58" s="80"/>
+      <c r="AB58" s="80"/>
+      <c r="AC58" s="83"/>
+    </row>
+    <row r="59" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B59" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="F59" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="H59" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="J59" s="82">
+        <v>1</v>
+      </c>
+      <c r="X59" s="80"/>
+      <c r="Y59" s="83"/>
+      <c r="Z59" s="80"/>
+      <c r="AA59" s="80"/>
+      <c r="AB59" s="80"/>
+      <c r="AC59" s="83"/>
+    </row>
+    <row r="60" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B60" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="G60" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="H60" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="I60" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="J60" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="X60" s="80"/>
+      <c r="Y60" s="83"/>
+      <c r="Z60" s="80"/>
+      <c r="AA60" s="80"/>
+      <c r="AB60" s="80"/>
+      <c r="AC60" s="83"/>
+    </row>
+    <row r="61" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B61" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="D61" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="E61" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="F61" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="G61" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="H61" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="I61" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="J61" s="86" t="s">
+        <v>50</v>
+      </c>
+      <c r="X61" s="80"/>
+      <c r="Y61" s="83"/>
+      <c r="Z61" s="80"/>
+      <c r="AA61" s="80"/>
+      <c r="AB61" s="80"/>
+      <c r="AC61" s="83"/>
+    </row>
+    <row r="62" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B62" s="112" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="64">
+        <v>0</v>
+      </c>
+      <c r="D62" s="64">
+        <v>0</v>
+      </c>
+      <c r="E62" s="64">
+        <v>0</v>
+      </c>
+      <c r="F62" s="82">
+        <v>0</v>
+      </c>
+      <c r="G62" s="64">
+        <v>0</v>
+      </c>
+      <c r="H62" s="82">
+        <v>0</v>
+      </c>
+      <c r="I62" s="64">
+        <v>0</v>
+      </c>
+      <c r="J62" s="82">
+        <v>0</v>
+      </c>
+      <c r="X62" s="80"/>
+      <c r="Y62" s="80"/>
+      <c r="Z62" s="80"/>
+      <c r="AA62" s="80"/>
+      <c r="AB62" s="80"/>
+      <c r="AC62" s="80"/>
+    </row>
+    <row r="63" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="C63" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="D63" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="E63" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="F63" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="G63" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="H63" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="I63" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="J63" s="69" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="2:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X64" s="80"/>
+      <c r="Z64" s="80"/>
+      <c r="AA64" s="80"/>
+      <c r="AB64" s="80"/>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B65" s="70"/>
+      <c r="C65" s="70" t="s">
+        <v>297</v>
+      </c>
+      <c r="D65" s="70" t="s">
+        <v>289</v>
+      </c>
+      <c r="E65" s="70" t="s">
+        <v>298</v>
+      </c>
+      <c r="F65" s="70" t="s">
+        <v>299</v>
+      </c>
+      <c r="G65" s="70" t="s">
+        <v>300</v>
+      </c>
+      <c r="H65" s="93" t="s">
+        <v>294</v>
+      </c>
+      <c r="I65" s="70" t="s">
+        <v>295</v>
+      </c>
+      <c r="V65" s="80"/>
+      <c r="W65" s="83"/>
+      <c r="X65" s="80"/>
+      <c r="Y65" s="80"/>
+      <c r="Z65" s="80"/>
+      <c r="AA65" s="83"/>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B66" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="64">
+        <v>1</v>
+      </c>
+      <c r="D66" s="64">
+        <v>1</v>
+      </c>
+      <c r="E66" s="64">
+        <v>1</v>
+      </c>
+      <c r="F66" s="64">
+        <v>1</v>
+      </c>
+      <c r="G66" s="64">
+        <v>1</v>
+      </c>
+      <c r="H66" s="95">
+        <v>1</v>
+      </c>
+      <c r="I66" s="64">
+        <v>1</v>
+      </c>
+      <c r="V66" s="80"/>
+      <c r="W66" s="83"/>
+      <c r="X66" s="80"/>
+      <c r="Y66" s="80"/>
+      <c r="Z66" s="80"/>
+      <c r="AA66" s="83"/>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B67" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="F67" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="G67" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="H67" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="I67" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="V67" s="80"/>
+      <c r="W67" s="83"/>
+      <c r="X67" s="80"/>
+      <c r="Y67" s="80"/>
+      <c r="Z67" s="80"/>
+      <c r="AA67" s="83"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B68" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="F68" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="G68" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="H68" s="95">
+        <v>1</v>
+      </c>
+      <c r="I68" s="64">
+        <v>1</v>
+      </c>
+      <c r="V68" s="80"/>
+      <c r="W68" s="83"/>
+      <c r="X68" s="80"/>
+      <c r="Y68" s="80"/>
+      <c r="Z68" s="80"/>
+      <c r="AA68" s="83"/>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B69" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="D69" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="E69" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="F69" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="G69" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="H69" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="I69" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="V69" s="80"/>
+      <c r="W69" s="83"/>
+      <c r="X69" s="80"/>
+      <c r="Y69" s="80"/>
+      <c r="Z69" s="80"/>
+      <c r="AA69" s="83"/>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B70" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" s="64">
+        <v>1</v>
+      </c>
+      <c r="D70" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="F70" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="G70" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="H70" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="I70" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="V70" s="80"/>
+      <c r="W70" s="80"/>
+      <c r="X70" s="80"/>
+      <c r="Y70" s="80"/>
+      <c r="Z70" s="80"/>
+      <c r="AA70" s="80"/>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B71" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" s="64">
+        <v>0</v>
+      </c>
+      <c r="D71" s="64">
+        <v>0</v>
+      </c>
+      <c r="E71" s="64">
+        <v>0</v>
+      </c>
+      <c r="F71" s="64">
+        <v>0</v>
+      </c>
+      <c r="G71" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="H71" s="95">
+        <v>0</v>
+      </c>
+      <c r="I71" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="99" t="s">
+        <v>35</v>
+      </c>
+      <c r="C72" s="99" t="s">
+        <v>53</v>
+      </c>
+      <c r="D72" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="E72" s="99" t="s">
+        <v>56</v>
+      </c>
+      <c r="F72" s="99" t="s">
+        <v>296</v>
+      </c>
+      <c r="G72" s="100" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" s="101" t="s">
+        <v>55</v>
+      </c>
+      <c r="I72" s="99" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B74" s="70"/>
+      <c r="C74" s="70" t="s">
+        <v>301</v>
+      </c>
+      <c r="D74" s="70" t="s">
+        <v>305</v>
+      </c>
+      <c r="E74" s="70" t="s">
+        <v>306</v>
+      </c>
+      <c r="F74" s="70"/>
+      <c r="G74" s="121" t="s">
+        <v>307</v>
+      </c>
+      <c r="H74" s="122" t="s">
+        <v>308</v>
+      </c>
+      <c r="I74" s="70"/>
+      <c r="J74" s="123" t="s">
+        <v>309</v>
+      </c>
+      <c r="K74" s="123" t="s">
+        <v>310</v>
+      </c>
+      <c r="L74" s="123" t="s">
+        <v>311</v>
+      </c>
+      <c r="M74" s="93"/>
+      <c r="N74" s="70" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B75" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" s="64">
+        <v>1</v>
+      </c>
+      <c r="E75" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" s="64"/>
+      <c r="G75" s="64">
+        <v>1</v>
+      </c>
+      <c r="H75" s="95">
+        <v>1</v>
+      </c>
+      <c r="I75" s="64"/>
+      <c r="J75" s="64">
+        <v>1</v>
+      </c>
+      <c r="K75" s="64">
+        <v>1</v>
+      </c>
+      <c r="L75" s="64">
+        <v>1</v>
+      </c>
+      <c r="M75" s="95"/>
+      <c r="N75" s="64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B76" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="F76" s="64"/>
+      <c r="G76" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="H76" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="I76" s="64"/>
+      <c r="J76" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="K76" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="L76" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="M76" s="95"/>
+      <c r="N76" s="64" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B77" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="66">
+        <v>11</v>
+      </c>
+      <c r="E77" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" s="64"/>
+      <c r="G77" s="66">
+        <v>11</v>
+      </c>
+      <c r="H77" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="I77" s="64"/>
+      <c r="J77" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="K77" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="L77" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="M77" s="95"/>
+      <c r="N77" s="64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B78" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="E78" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F78" s="64"/>
+      <c r="G78" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="H78" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="I78" s="64"/>
+      <c r="J78" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="K78" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="L78" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="M78" s="95"/>
+      <c r="N78" s="64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B79" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C79" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="E79" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79" s="66"/>
+      <c r="G79" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="H79" s="96" t="s">
+        <v>51</v>
+      </c>
+      <c r="I79" s="66"/>
+      <c r="J79" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="K79" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="L79" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="M79" s="96"/>
+      <c r="N79" s="66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B80" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="C80" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" s="64">
+        <v>0</v>
+      </c>
+      <c r="E80" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80" s="64"/>
+      <c r="G80" s="66">
+        <v>0</v>
+      </c>
+      <c r="H80" s="95">
+        <v>0</v>
+      </c>
+      <c r="I80" s="64"/>
+      <c r="J80" s="64">
+        <v>0</v>
+      </c>
+      <c r="K80" s="64">
+        <v>0</v>
+      </c>
+      <c r="L80" s="66">
+        <v>0</v>
+      </c>
+      <c r="M80" s="95"/>
+      <c r="N80" s="64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="99" t="s">
+        <v>35</v>
+      </c>
+      <c r="C81" s="99" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="99" t="s">
+        <v>338</v>
+      </c>
+      <c r="E81" s="100" t="s">
+        <v>16</v>
+      </c>
+      <c r="F81" s="99"/>
+      <c r="G81" s="100" t="s">
+        <v>338</v>
+      </c>
+      <c r="H81" s="101" t="s">
+        <v>349</v>
+      </c>
+      <c r="I81" s="99"/>
+      <c r="J81" s="99" t="s">
+        <v>337</v>
+      </c>
+      <c r="K81" s="99" t="s">
+        <v>337</v>
+      </c>
+      <c r="L81" s="100" t="s">
+        <v>339</v>
+      </c>
+      <c r="M81" s="101"/>
+      <c r="N81" s="99" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B83" s="70"/>
+      <c r="C83" s="70" t="s">
+        <v>302</v>
+      </c>
+      <c r="D83" s="70" t="s">
+        <v>313</v>
+      </c>
+      <c r="E83" s="70" t="s">
+        <v>314</v>
+      </c>
+      <c r="F83" s="70"/>
+      <c r="G83" s="121" t="s">
+        <v>315</v>
+      </c>
+      <c r="H83" s="122" t="s">
+        <v>316</v>
+      </c>
+      <c r="I83" s="70"/>
+      <c r="J83" s="123" t="s">
+        <v>317</v>
+      </c>
+      <c r="K83" s="123" t="s">
+        <v>318</v>
+      </c>
+      <c r="L83" s="123" t="s">
+        <v>336</v>
+      </c>
+      <c r="M83" s="93"/>
+      <c r="N83" s="70" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B84" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" s="64">
+        <v>1</v>
+      </c>
+      <c r="E84" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F84" s="64"/>
+      <c r="G84" s="64">
+        <v>1</v>
+      </c>
+      <c r="H84" s="95">
+        <v>1</v>
+      </c>
+      <c r="I84" s="64"/>
+      <c r="J84" s="64">
+        <v>1</v>
+      </c>
+      <c r="K84" s="64">
+        <v>1</v>
+      </c>
+      <c r="L84" s="64">
+        <v>1</v>
+      </c>
+      <c r="M84" s="95"/>
+      <c r="N84" s="64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B85" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="D85" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="E85" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="F85" s="64"/>
+      <c r="G85" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="H85" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="I85" s="64"/>
+      <c r="J85" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="K85" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="L85" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="M85" s="95"/>
+      <c r="N85" s="64" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B86" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" s="66">
+        <v>10</v>
+      </c>
+      <c r="E86" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86" s="64"/>
+      <c r="G86" s="66">
+        <v>10</v>
+      </c>
+      <c r="H86" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="I86" s="64"/>
+      <c r="J86" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="K86" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="L86" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="M86" s="95"/>
+      <c r="N86" s="64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B87" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="E87" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F87" s="64"/>
+      <c r="G87" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="H87" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="I87" s="64"/>
+      <c r="J87" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="K87" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="L87" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="M87" s="95"/>
+      <c r="N87" s="64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B88" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C88" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="E88" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88" s="66"/>
+      <c r="G88" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="H88" s="96" t="s">
+        <v>51</v>
+      </c>
+      <c r="I88" s="66"/>
+      <c r="J88" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="K88" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="L88" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="M88" s="96"/>
+      <c r="N88" s="66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B89" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="C89" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" s="64">
+        <v>0</v>
+      </c>
+      <c r="E89" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F89" s="64"/>
+      <c r="G89" s="66">
+        <v>0</v>
+      </c>
+      <c r="H89" s="95">
+        <v>0</v>
+      </c>
+      <c r="I89" s="64"/>
+      <c r="J89" s="64">
+        <v>0</v>
+      </c>
+      <c r="K89" s="64">
+        <v>0</v>
+      </c>
+      <c r="L89" s="66">
+        <v>0</v>
+      </c>
+      <c r="M89" s="95"/>
+      <c r="N89" s="64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B90" s="99" t="s">
+        <v>35</v>
+      </c>
+      <c r="C90" s="99" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" s="99" t="s">
+        <v>338</v>
+      </c>
+      <c r="E90" s="100" t="s">
+        <v>16</v>
+      </c>
+      <c r="F90" s="99"/>
+      <c r="G90" s="100" t="s">
+        <v>338</v>
+      </c>
+      <c r="H90" s="101" t="s">
+        <v>349</v>
+      </c>
+      <c r="I90" s="99"/>
+      <c r="J90" s="99" t="s">
+        <v>337</v>
+      </c>
+      <c r="K90" s="99" t="s">
+        <v>337</v>
+      </c>
+      <c r="L90" s="100" t="s">
+        <v>339</v>
+      </c>
+      <c r="M90" s="101"/>
+      <c r="N90" s="99" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B92" s="70"/>
+      <c r="C92" s="70" t="s">
+        <v>303</v>
+      </c>
+      <c r="D92" s="70" t="s">
+        <v>320</v>
+      </c>
+      <c r="E92" s="70" t="s">
+        <v>321</v>
+      </c>
+      <c r="F92" s="70"/>
+      <c r="G92" s="121" t="s">
+        <v>322</v>
+      </c>
+      <c r="H92" s="122" t="s">
+        <v>323</v>
+      </c>
+      <c r="I92" s="70"/>
+      <c r="J92" s="123" t="s">
+        <v>324</v>
+      </c>
+      <c r="K92" s="123" t="s">
+        <v>325</v>
+      </c>
+      <c r="L92" s="123" t="s">
+        <v>326</v>
+      </c>
+      <c r="M92" s="93"/>
+      <c r="N92" s="70" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B93" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" s="64">
+        <v>1</v>
+      </c>
+      <c r="E93" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F93" s="64"/>
+      <c r="G93" s="64">
+        <v>1</v>
+      </c>
+      <c r="H93" s="95">
+        <v>1</v>
+      </c>
+      <c r="I93" s="64"/>
+      <c r="J93" s="64">
+        <v>1</v>
+      </c>
+      <c r="K93" s="64">
+        <v>1</v>
+      </c>
+      <c r="L93" s="64">
+        <v>1</v>
+      </c>
+      <c r="M93" s="95"/>
+      <c r="N93" s="64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B94" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="D94" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="E94" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="F94" s="64"/>
+      <c r="G94" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="H94" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="I94" s="64"/>
+      <c r="J94" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="K94" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="L94" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="M94" s="95"/>
+      <c r="N94" s="64" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B95" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" s="66" t="s">
+        <v>350</v>
+      </c>
+      <c r="E95" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F95" s="64"/>
+      <c r="G95" s="66" t="s">
+        <v>350</v>
+      </c>
+      <c r="H95" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="I95" s="64"/>
+      <c r="J95" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="K95" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="L95" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="M95" s="95"/>
+      <c r="N95" s="64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B96" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="E96" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F96" s="64"/>
+      <c r="G96" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="H96" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="I96" s="64"/>
+      <c r="J96" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="K96" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="L96" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="M96" s="95"/>
+      <c r="N96" s="64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B97" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C97" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="E97" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F97" s="66"/>
+      <c r="G97" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="H97" s="96" t="s">
+        <v>51</v>
+      </c>
+      <c r="I97" s="66"/>
+      <c r="J97" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="K97" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="L97" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="M97" s="96"/>
+      <c r="N97" s="66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B98" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="C98" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98" s="64">
+        <v>0</v>
+      </c>
+      <c r="E98" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F98" s="64"/>
+      <c r="G98" s="66">
+        <v>0</v>
+      </c>
+      <c r="H98" s="95">
+        <v>0</v>
+      </c>
+      <c r="I98" s="64"/>
+      <c r="J98" s="64">
+        <v>0</v>
+      </c>
+      <c r="K98" s="64">
+        <v>0</v>
+      </c>
+      <c r="L98" s="66">
+        <v>0</v>
+      </c>
+      <c r="M98" s="95"/>
+      <c r="N98" s="64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="99" t="s">
+        <v>35</v>
+      </c>
+      <c r="C99" s="99" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" s="99" t="s">
+        <v>338</v>
+      </c>
+      <c r="E99" s="100" t="s">
+        <v>16</v>
+      </c>
+      <c r="F99" s="99"/>
+      <c r="G99" s="100" t="s">
+        <v>338</v>
+      </c>
+      <c r="H99" s="101" t="s">
+        <v>349</v>
+      </c>
+      <c r="I99" s="99"/>
+      <c r="J99" s="99" t="s">
+        <v>337</v>
+      </c>
+      <c r="K99" s="99" t="s">
+        <v>337</v>
+      </c>
+      <c r="L99" s="100" t="s">
+        <v>339</v>
+      </c>
+      <c r="M99" s="101"/>
+      <c r="N99" s="99" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B101" s="70"/>
+      <c r="C101" s="70" t="s">
+        <v>304</v>
+      </c>
+      <c r="D101" s="70" t="s">
+        <v>335</v>
+      </c>
+      <c r="E101" s="70" t="s">
+        <v>334</v>
+      </c>
+      <c r="F101" s="70"/>
+      <c r="G101" s="121" t="s">
+        <v>333</v>
+      </c>
+      <c r="H101" s="122" t="s">
+        <v>332</v>
+      </c>
+      <c r="I101" s="70"/>
+      <c r="J101" s="123" t="s">
+        <v>331</v>
+      </c>
+      <c r="K101" s="123" t="s">
+        <v>329</v>
+      </c>
+      <c r="L101" s="123" t="s">
+        <v>330</v>
+      </c>
+      <c r="M101" s="93"/>
+      <c r="N101" s="70" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B102" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="D102" s="64">
+        <v>1</v>
+      </c>
+      <c r="E102" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F102" s="64"/>
+      <c r="G102" s="64">
+        <v>1</v>
+      </c>
+      <c r="H102" s="95">
+        <v>1</v>
+      </c>
+      <c r="I102" s="64"/>
+      <c r="J102" s="64">
+        <v>1</v>
+      </c>
+      <c r="K102" s="64">
+        <v>1</v>
+      </c>
+      <c r="L102" s="64">
+        <v>1</v>
+      </c>
+      <c r="M102" s="95"/>
+      <c r="N102" s="64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B103" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="D103" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="E103" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="F103" s="64"/>
+      <c r="G103" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="H103" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="I103" s="64"/>
+      <c r="J103" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="K103" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="L103" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="M103" s="95"/>
+      <c r="N103" s="64" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B104" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104" s="66" t="s">
+        <v>351</v>
+      </c>
+      <c r="E104" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104" s="64"/>
+      <c r="G104" s="66" t="s">
+        <v>351</v>
+      </c>
+      <c r="H104" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="I104" s="64"/>
+      <c r="J104" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="K104" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="L104" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="M104" s="95"/>
+      <c r="N104" s="64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B105" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="D105" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="E105" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F105" s="64"/>
+      <c r="G105" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="H105" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="I105" s="64"/>
+      <c r="J105" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="K105" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="L105" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="M105" s="95"/>
+      <c r="N105" s="64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B106" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C106" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="D106" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="E106" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F106" s="66"/>
+      <c r="G106" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="H106" s="96" t="s">
+        <v>51</v>
+      </c>
+      <c r="I106" s="66"/>
+      <c r="J106" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="K106" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="L106" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="M106" s="96"/>
+      <c r="N106" s="66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B107" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="C107" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="D107" s="64">
+        <v>0</v>
+      </c>
+      <c r="E107" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F107" s="64"/>
+      <c r="G107" s="66">
+        <v>0</v>
+      </c>
+      <c r="H107" s="95">
+        <v>0</v>
+      </c>
+      <c r="I107" s="64"/>
+      <c r="J107" s="64">
+        <v>0</v>
+      </c>
+      <c r="K107" s="64">
+        <v>0</v>
+      </c>
+      <c r="L107" s="66">
+        <v>0</v>
+      </c>
+      <c r="M107" s="95"/>
+      <c r="N107" s="64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B108" s="99" t="s">
+        <v>35</v>
+      </c>
+      <c r="C108" s="99" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" s="99" t="s">
+        <v>338</v>
+      </c>
+      <c r="E108" s="100" t="s">
+        <v>16</v>
+      </c>
+      <c r="F108" s="99"/>
+      <c r="G108" s="100" t="s">
+        <v>338</v>
+      </c>
+      <c r="H108" s="101" t="s">
+        <v>349</v>
+      </c>
+      <c r="I108" s="99"/>
+      <c r="J108" s="99" t="s">
+        <v>337</v>
+      </c>
+      <c r="K108" s="99" t="s">
+        <v>337</v>
+      </c>
+      <c r="L108" s="100" t="s">
+        <v>339</v>
+      </c>
+      <c r="M108" s="101"/>
+      <c r="N108" s="99" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B110" s="70"/>
+      <c r="C110" s="62" t="s">
+        <v>255</v>
+      </c>
+      <c r="D110" s="62" t="s">
+        <v>256</v>
+      </c>
+      <c r="E110" s="62" t="s">
+        <v>257</v>
+      </c>
+      <c r="F110" s="62" t="s">
+        <v>258</v>
+      </c>
+      <c r="G110" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="H110" s="62" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B111" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111" s="64">
+        <v>1</v>
+      </c>
+      <c r="D111" s="64">
+        <v>1</v>
+      </c>
+      <c r="E111" s="64">
+        <v>1</v>
+      </c>
+      <c r="F111" s="64">
+        <v>1</v>
+      </c>
+      <c r="G111" s="64">
+        <v>1</v>
+      </c>
+      <c r="H111" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B112" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="D112" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="E112" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="F112" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="G112" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="H112" s="64" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B113" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="D113" s="66">
+        <v>2</v>
+      </c>
+      <c r="E113" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="F113" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="G113" s="64">
+        <v>1</v>
+      </c>
+      <c r="H113" s="66" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B114" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C114" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="D114" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="E114" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="F114" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="G114" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="H114" s="64" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B115" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C115" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="D115" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="E115" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="F115" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="G115" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="H115" s="66" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B116" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="C116" s="64">
+        <v>0</v>
+      </c>
+      <c r="D116" s="64">
+        <v>0</v>
+      </c>
+      <c r="E116" s="64">
+        <v>0</v>
+      </c>
+      <c r="F116" s="64">
+        <v>0</v>
+      </c>
+      <c r="G116" s="64">
+        <v>0</v>
+      </c>
+      <c r="H116" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B117" s="99" t="s">
+        <v>35</v>
+      </c>
+      <c r="C117" s="68" t="s">
+        <v>253</v>
+      </c>
+      <c r="D117" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="E117" s="103" t="s">
+        <v>55</v>
+      </c>
+      <c r="F117" s="68" t="s">
+        <v>254</v>
+      </c>
+      <c r="G117" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="H117" s="103" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B119" s="70"/>
+      <c r="C119" s="62" t="s">
+        <v>346</v>
+      </c>
+      <c r="D119" s="62" t="s">
+        <v>346</v>
+      </c>
+      <c r="E119" s="62" t="s">
+        <v>347</v>
+      </c>
+      <c r="F119" s="62" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B120" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120" s="64">
+        <v>1</v>
+      </c>
+      <c r="D120" s="64">
+        <v>1</v>
+      </c>
+      <c r="E120" s="64">
+        <v>1</v>
+      </c>
+      <c r="F120" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B121" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C121" s="66" t="s">
+        <v>340</v>
+      </c>
+      <c r="D121" s="64" t="s">
+        <v>340</v>
+      </c>
+      <c r="E121" s="64" t="s">
+        <v>340</v>
+      </c>
+      <c r="F121" s="66" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B122" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C122" s="66" t="s">
+        <v>341</v>
+      </c>
+      <c r="D122" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="E122" s="66" t="s">
+        <v>340</v>
+      </c>
+      <c r="F122" s="66" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B123" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C123" s="64" t="s">
+        <v>342</v>
+      </c>
+      <c r="D123" s="64" t="s">
+        <v>345</v>
+      </c>
+      <c r="E123" s="64" t="s">
+        <v>341</v>
+      </c>
+      <c r="F123" s="64" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B124" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C124" s="71" t="s">
+        <v>340</v>
+      </c>
+      <c r="D124" s="66" t="s">
+        <v>340</v>
+      </c>
+      <c r="E124" s="66" t="s">
+        <v>340</v>
+      </c>
+      <c r="F124" s="71" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B125" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="C125" s="64">
+        <v>1</v>
+      </c>
+      <c r="D125" s="64">
+        <v>1</v>
+      </c>
+      <c r="E125" s="64">
+        <v>1</v>
+      </c>
+      <c r="F125" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B126" s="99" t="s">
+        <v>35</v>
+      </c>
+      <c r="C126" s="68" t="s">
+        <v>343</v>
+      </c>
+      <c r="D126" s="73" t="s">
+        <v>343</v>
+      </c>
+      <c r="E126" s="103" t="s">
+        <v>340</v>
+      </c>
+      <c r="F126" s="69" t="s">
+        <v>340</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010012558DA5CEDF724C9238EFDF61AEC296" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2b2921c10030b5a9dffa1f4d629a51fb">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9e81aa0f-df26-4a3e-80fa-bf3e5843c1d6" xmlns:ns4="cbdafd04-c175-4161-91f9-445a90cc22dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="84328cbd091059826ae617051937529b" ns3:_="" ns4:_="">
+    <xsd:import namespace="9e81aa0f-df26-4a3e-80fa-bf3e5843c1d6"/>
+    <xsd:import namespace="cbdafd04-c175-4161-91f9-445a90cc22dc"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9e81aa0f-df26-4a3e-80fa-bf3e5843c1d6" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="11" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="12" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="13" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="15" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="16" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="17" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSystemTags" ma:index="22" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="23" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="cbdafd04-c175-4161-91f9-445a90cc22dc" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="20" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="9e81aa0f-df26-4a3e-80fa-bf3e5843c1d6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8920E834-EE22-499F-A835-604B37804776}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9e81aa0f-df26-4a3e-80fa-bf3e5843c1d6"/>
+    <ds:schemaRef ds:uri="cbdafd04-c175-4161-91f9-445a90cc22dc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35651FE3-E1DA-42C3-84F6-B697AFFC154E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="cbdafd04-c175-4161-91f9-445a90cc22dc"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9e81aa0f-df26-4a3e-80fa-bf3e5843c1d6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A6B6042-DC83-4FDA-B47E-06B7E5B1D956}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>